--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2864526.631581455</v>
+        <v>2857353.34287117</v>
       </c>
     </row>
     <row r="7">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>93.37325980002703</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>190.5041269315456</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>76.62446154718991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>54.88233028540636</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.4911689785399</v>
+        <v>331.0935197270689</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464233</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464233</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464221</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281874</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>82.88528077214596</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.9546773564062</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.1649833439809</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55.13957087283238</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358464</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>298.0516882329493</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.59499240497483</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.72878559814586</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>194.7880737864211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>164.4117978075328</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,10 +1824,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.97068936074829</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.25677756260364</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.6131720422762</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>152.3420011018082</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U34" t="n">
-        <v>234.5381262661367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>149.2179881267003</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>58.40168825977486</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5391407060233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>71.27249328109761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>51.44029960352517</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>81.02492003497314</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.69985694152493</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="C2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="D2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="E2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029595</v>
+        <v>500.4124063240799</v>
       </c>
       <c r="V2" t="n">
-        <v>617.7893333662367</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="W2" t="n">
-        <v>617.7893333662367</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="X2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.843359929514</v>
+        <v>307.9839952821146</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.5455503773155</v>
+        <v>728.6504190243998</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>554.1973897432728</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>405.2629800820215</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>246.025525076566</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>99.49096710345097</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459458</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4439,22 +4439,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>667.5940466057884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>612.1573493478022</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>404.3058491422694</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y3" t="n">
-        <v>196.5455503773155</v>
+        <v>896.8657560444678</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.358384298872</v>
+        <v>51.6886042247055</v>
       </c>
       <c r="C5" t="n">
-        <v>781.358384298872</v>
+        <v>51.6886042247055</v>
       </c>
       <c r="D5" t="n">
-        <v>781.358384298872</v>
+        <v>51.6886042247055</v>
       </c>
       <c r="E5" t="n">
-        <v>781.358384298872</v>
+        <v>51.6886042247055</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832929</v>
+        <v>44.74310347550202</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380448</v>
+        <v>57.64391735380403</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456888</v>
+        <v>220.1747338456879</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039992</v>
+        <v>474.0852112039976</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494183</v>
+        <v>773.2160860494159</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293132</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935885</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="W5" t="n">
-        <v>1135.389868115579</v>
+        <v>1135.389868115574</v>
       </c>
       <c r="X5" t="n">
-        <v>1135.389868115579</v>
+        <v>761.9241098544944</v>
       </c>
       <c r="Y5" t="n">
-        <v>1135.389868115579</v>
+        <v>386.1265029389165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>545.5585091155203</v>
+        <v>658.9226223886626</v>
       </c>
       <c r="C6" t="n">
-        <v>371.1054798343933</v>
+        <v>484.4695931075356</v>
       </c>
       <c r="D6" t="n">
-        <v>222.1710701731421</v>
+        <v>335.5351834462843</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782881</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782881</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739656</v>
+        <v>314.08117961385</v>
       </c>
       <c r="M6" t="n">
-        <v>705.3126163119246</v>
+        <v>581.0776013314414</v>
       </c>
       <c r="N6" t="n">
-        <v>1073.631850849884</v>
+        <v>949.3968358693993</v>
       </c>
       <c r="O6" t="n">
-        <v>1381.946732222204</v>
+        <v>1257.711717241719</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706689</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785562</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T6" t="n">
-        <v>1319.485484785562</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U6" t="n">
-        <v>1091.278670439126</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="V6" t="n">
-        <v>1007.556164608676</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="W6" t="n">
-        <v>753.3188078804742</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>753.3188078804742</v>
+        <v>1034.898258173685</v>
       </c>
       <c r="Y6" t="n">
-        <v>545.5585091155203</v>
+        <v>827.1379594087307</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918691</v>
+        <v>176.6531179656241</v>
       </c>
       <c r="F7" t="n">
-        <v>315.2036061918691</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="G7" t="n">
-        <v>315.2036061918691</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="H7" t="n">
-        <v>259.5070699566849</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771377</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888187</v>
+        <v>32.09990175888156</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611325</v>
+        <v>90.61654790611266</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236696</v>
+        <v>162.7032697236688</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400031</v>
+        <v>238.510546840002</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057959</v>
+        <v>292.5145415057945</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918691</v>
+        <v>315.2036061918674</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>355.0052931667779</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>421.6255084618049</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,31 +5026,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>570.0299571250968</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315608</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1302.160640470608</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.160640470608</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1074.171089572591</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>853.378510429061</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5281,7 +5281,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5743,61 +5743,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
         <v>1661.954360834046</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028587</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>349.7750889416477</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>349.7750889416477</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465302</v>
@@ -6502,7 +6502,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>810.2549326310403</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>555.5704444251535</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>266.1532743881928</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6715,16 +6715,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1150.933968871105</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>896.249480665218</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>896.249480665218</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,37 +6916,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619128</v>
@@ -6955,16 +6955,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1348.191030025882</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1348.191030025882</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1348.191030025882</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1093.506541819995</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>804.0893717830344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>843.8929204411535</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>674.9567375132466</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W40" t="n">
-        <v>1025.541385271393</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.541385271393</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>1025.541385271393</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W43" t="n">
-        <v>883.1107261099196</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X43" t="n">
-        <v>655.1211752119023</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.3285960683721</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4072.551765129214</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.551765129214</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D46" t="n">
-        <v>4072.551765129214</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E46" t="n">
-        <v>3924.638671546821</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>4555.225804233119</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V46" t="n">
-        <v>4300.541316027232</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W46" t="n">
-        <v>4300.541316027232</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="X46" t="n">
-        <v>4072.551765129214</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="Y46" t="n">
-        <v>4072.551765129214</v>
+        <v>972.2646934632138</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>247.4283748023149</v>
+        <v>143.9445520392428</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357537</v>
+        <v>97.00923094357574</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835741</v>
+        <v>347.7570777074457</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470465</v>
+        <v>437.6152809470459</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>90.59930130712438</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>38.86002301949938</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9245,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,16 +9482,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>57.34956953740686</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>2.835023291094984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>133.6447836574641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>134.1771850839655</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>9.300656325259894</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.8953512967691</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U34" t="n">
-        <v>51.6992261324406</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>48.70282185690294</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>227.8356641388025</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.9838576305677</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>215.2505050554934</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>174.269355785512</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>205.2124323636042</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>238.8231413950661</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="16">
@@ -26319,31 +26319,31 @@
         <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
@@ -26352,10 +26352,10 @@
         <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703851</v>
+        <v>106137.1517703838</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252097</v>
+        <v>316711.9424252109</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313444</v>
+        <v>24677.24609313449</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817106</v>
+        <v>76496.15793817137</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.73532001646627e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870319</v>
+        <v>269877.2512870324</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26447,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230229</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485723</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179217.038012686</v>
+        <v>179217.0380126859</v>
       </c>
       <c r="C6" t="n">
-        <v>222008.5908191527</v>
+        <v>222008.5908191536</v>
       </c>
       <c r="D6" t="n">
-        <v>82771.6180809811</v>
+        <v>82771.61808098017</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758101</v>
+        <v>-21779.00365730287</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793153</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="H6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="J6" t="n">
-        <v>432100.9292081761</v>
+        <v>431126.3379484544</v>
       </c>
       <c r="K6" t="n">
-        <v>479678.3779861806</v>
+        <v>478703.7867264589</v>
       </c>
       <c r="L6" t="n">
-        <v>427859.4661411442</v>
+        <v>426884.874881422</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.608845478</v>
+        <v>368580.0175857565</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793151</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195936</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.56020455939</v>
+        <v>117.560204559389</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464233</v>
+        <v>372.0396308464221</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026469</v>
+        <v>82.53894384026371</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576966</v>
+        <v>260.1834596576975</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440678</v>
+        <v>95.88311714406666</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440678</v>
+        <v>95.88311714406734</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081321</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440678</v>
+        <v>95.88311714406666</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>313.5027859416844</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>137.2481315385893</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>60.64372686654939</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>196.8126528755132</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.2176803404121</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.24267268494066</v>
+        <v>51.64032193641168</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528816</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128709</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.1983078096315</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129666</v>
+        <v>84.4580015512968</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>149.9153063772793</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.740305804513383</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302588292</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>105.2027839287206</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358477</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322648</v>
+        <v>68.41045236322665</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>115.7324817878456</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.6429462510787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.36734479495638</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>68.936406382012</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246832</v>
+        <v>0.472603837424679</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025538</v>
+        <v>4.840054050025496</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231512</v>
+        <v>18.22005944231496</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662324</v>
+        <v>40.11165994662289</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481009</v>
+        <v>60.11698038480957</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439575</v>
+        <v>74.58043007439511</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819696</v>
+        <v>82.98509856819624</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127985</v>
+        <v>84.32788422127912</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288814</v>
+        <v>79.62842981288746</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646628</v>
+        <v>67.96102257646568</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869479</v>
+        <v>51.03589764869434</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262828</v>
+        <v>29.68720080262802</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531498</v>
+        <v>10.76945994531489</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326552</v>
+        <v>2.068823298326534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397465</v>
+        <v>0.03780830699397432</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560465</v>
+        <v>0.2528653456560443</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941292</v>
+        <v>2.44214689094127</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596338</v>
+        <v>8.706109488596264</v>
       </c>
       <c r="J6" t="n">
-        <v>23.8902298718285</v>
+        <v>23.89022987182829</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078361</v>
+        <v>40.83220803078326</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483588</v>
+        <v>54.90394270483541</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486756</v>
+        <v>64.07031148486701</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827101</v>
+        <v>65.76606198270952</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106821</v>
+        <v>60.1630982710677</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496909</v>
+        <v>48.28619043496867</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128762</v>
+        <v>32.27803956128734</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134647</v>
+        <v>15.69983260134634</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707702</v>
+        <v>4.696862889707662</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235924</v>
+        <v>1.019224792359231</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368728</v>
+        <v>0.01663587800368713</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005394</v>
+        <v>0.2119938115005375</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886615</v>
+        <v>1.884817705886599</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761677</v>
+        <v>6.375232076761622</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308813</v>
+        <v>14.987962473088</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634263</v>
+        <v>24.62982646342608</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072565</v>
+        <v>31.51769812072538</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094364</v>
+        <v>33.23099356094335</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898711</v>
+        <v>32.44083480898682</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736716</v>
+        <v>29.9643616473669</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275613</v>
+        <v>25.63968789275591</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884679</v>
+        <v>17.75159088846774</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651522</v>
+        <v>9.53201265165144</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513944</v>
+        <v>3.694473969513912</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477589</v>
+        <v>0.905791740047751</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912034</v>
+        <v>0.01156329880912024</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>124.3809279722199</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201072</v>
+        <v>28.16237059201038</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109943</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548589</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337567</v>
+        <v>302.152398833756</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366731</v>
+        <v>292.2617450366724</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539468</v>
+        <v>230.3303996539461</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926794</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414999</v>
+        <v>41.04519843414954</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557065</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284209</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464233</v>
+        <v>269.6933552702944</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464233</v>
+        <v>372.0396308464221</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033533</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>4.911084327763221</v>
+        <v>232.7745516605756</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111152</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543446</v>
+        <v>2.360334637543229</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104179</v>
+        <v>59.10772338104152</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278422</v>
+        <v>72.81487052278393</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882157</v>
+        <v>76.57300718821541</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140683</v>
+        <v>54.54948956140657</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764962</v>
+        <v>22.9182471576494</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>309.5875389014632</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>245.953437951024</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.8510818313024</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
